--- a/Data/EC/NIT-9006611127.xlsx
+++ b/Data/EC/NIT-9006611127.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05F2426B-9CD5-4AF9-BEF4-AE82720DC26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2345D229-D12A-4C9F-93D0-8C662C2CB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4EEEE7A2-F8B6-4A12-B589-2E3580F4DF14}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59B680C7-DE66-41CC-BC8C-473CCCF755BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,25 +65,97 @@
     <t>CC</t>
   </si>
   <si>
+    <t>13929758</t>
+  </si>
+  <si>
+    <t>JORGE LANDAZABAL MELENDEZ</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1101450656</t>
+  </si>
+  <si>
+    <t>MIGUEL URUETA ALVAREZ</t>
+  </si>
+  <si>
+    <t>5594062</t>
+  </si>
+  <si>
+    <t>NILSON ARBOLEDA HOYOS</t>
+  </si>
+  <si>
+    <t>1098637479</t>
+  </si>
+  <si>
+    <t>OSCAR ALBERTO ARDILA SIZA</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1027958149</t>
+  </si>
+  <si>
+    <t>HUGO ARMANDO DURANGO BARON</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>75583120</t>
+  </si>
+  <si>
+    <t>GABRIEL JIMENEZ CARMONA</t>
+  </si>
+  <si>
     <t>19762942</t>
   </si>
   <si>
     <t>JOSE MIGUEL ZABALETA TURIZO</t>
   </si>
   <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>75583120</t>
-  </si>
-  <si>
-    <t>GABRIEL JIMENEZ CARMONA</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
+    <t>1085101046</t>
+  </si>
+  <si>
+    <t>WILSON VILLARREAL ROBLES</t>
   </si>
   <si>
     <t>85435936</t>
@@ -92,55 +164,28 @@
     <t>WILSON VILLARREAL CANTILLO</t>
   </si>
   <si>
-    <t>1085101046</t>
-  </si>
-  <si>
-    <t>WILSON VILLARREAL ROBLES</t>
-  </si>
-  <si>
     <t>1092356817</t>
   </si>
   <si>
     <t>JUAN DANILO DUARTE PATIÑO</t>
   </si>
   <si>
-    <t>1098637479</t>
-  </si>
-  <si>
-    <t>OSCAR ALBERTO ARDILA SIZA</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>13929758</t>
-  </si>
-  <si>
-    <t>JORGE LANDAZABAL MELENDEZ</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>5594062</t>
-  </si>
-  <si>
-    <t>NILSON ARBOLEDA HOYOS</t>
+    <t>13564056</t>
+  </si>
+  <si>
+    <t>ROBINSON HERNANDEZ CELIS</t>
+  </si>
+  <si>
+    <t>85040871</t>
+  </si>
+  <si>
+    <t>LEONARDO FABIO LOPEZ ROYERO</t>
+  </si>
+  <si>
+    <t>1098675972</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO FERRARO GARCIA</t>
   </si>
   <si>
     <t>73508020</t>
@@ -153,36 +198,6 @@
   </si>
   <si>
     <t>MIGUEL ANTONIO TORRES CONTRERAS</t>
-  </si>
-  <si>
-    <t>85040871</t>
-  </si>
-  <si>
-    <t>LEONARDO FABIO LOPEZ ROYERO</t>
-  </si>
-  <si>
-    <t>13564056</t>
-  </si>
-  <si>
-    <t>ROBINSON HERNANDEZ CELIS</t>
-  </si>
-  <si>
-    <t>1098675972</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO FERRARO GARCIA</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -596,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26442139-F701-BD34-7667-D8E1430B0E4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E01CEF2-9D42-8420-D521-E2E35939F4AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CDA577-79E6-4F15-AACA-E6BC99DF1CD8}">
-  <dimension ref="B2:J127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D75D13-7A34-46EA-833B-65AB636CF7EC}">
+  <dimension ref="B2:J144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -972,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1049,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3173194</v>
+        <v>3678327</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1065,17 +1080,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1102,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,7 +1143,7 @@
         <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1139,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
         <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1162,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
         <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1197,7 +1212,7 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1208,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1220,7 +1235,7 @@
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1231,13 +1246,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
@@ -1254,13 +1269,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>29509</v>
@@ -1283,13 +1298,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1300,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>29509</v>
@@ -1323,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1346,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1369,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>737717</v>
@@ -1392,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1415,16 +1430,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1438,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1461,19 +1476,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1484,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1507,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1530,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1553,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1576,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1599,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1622,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F38" s="18">
         <v>29509</v>
@@ -1645,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F39" s="18">
         <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1674,7 +1689,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
@@ -1691,13 +1706,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
@@ -1714,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1737,13 +1752,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1760,10 +1775,10 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>28</v>
@@ -1783,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1806,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1829,19 +1844,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1852,19 +1867,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1875,13 +1890,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
@@ -1898,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
@@ -1921,19 +1936,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1944,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1967,13 +1982,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
@@ -1990,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2013,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F55" s="18">
         <v>29509</v>
@@ -2036,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
         <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2059,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" s="18">
         <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2082,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F58" s="18">
         <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2105,19 +2120,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2128,13 +2143,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
@@ -2151,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F61" s="18">
         <v>29509</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2174,13 +2189,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F62" s="18">
         <v>29509</v>
@@ -2197,19 +2212,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F63" s="18">
         <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2220,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F64" s="18">
         <v>29509</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2243,19 +2258,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F65" s="18">
         <v>29509</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2266,19 +2281,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F66" s="18">
         <v>29509</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2289,16 +2304,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2312,16 +2327,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="E68" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2335,19 +2350,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F69" s="18">
         <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2358,16 +2373,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2381,13 +2396,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F71" s="18">
         <v>29509</v>
@@ -2404,19 +2419,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" s="18">
         <v>29509</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2427,16 +2442,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2450,13 +2465,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F74" s="18">
         <v>29509</v>
@@ -2473,16 +2488,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2496,19 +2511,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F76" s="18">
         <v>29509</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2519,16 +2534,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2542,16 +2557,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2565,19 +2580,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F79" s="18">
         <v>29509</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2588,16 +2603,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2611,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2634,19 +2649,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F82" s="18">
         <v>29509</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2657,16 +2672,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2680,19 +2695,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F84" s="18">
         <v>29509</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2703,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F85" s="18">
         <v>29509</v>
@@ -2726,16 +2741,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2749,19 +2764,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F87" s="18">
         <v>29509</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2772,19 +2787,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F88" s="18">
         <v>29509</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2795,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2818,19 +2833,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2841,13 +2856,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F91" s="18">
         <v>29509</v>
@@ -2864,19 +2879,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2887,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F93" s="18">
         <v>29509</v>
@@ -2910,19 +2925,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2933,19 +2948,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F95" s="18">
         <v>29509</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2956,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F96" s="18">
         <v>29509</v>
@@ -2979,13 +2994,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="F97" s="18">
         <v>29509</v>
@@ -3002,19 +3017,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="E98" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3025,19 +3040,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F99" s="18">
         <v>29509</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3048,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F100" s="18">
         <v>29509</v>
@@ -3071,19 +3086,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3094,19 +3109,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3117,19 +3132,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="E103" s="16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3140,13 +3155,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F104" s="18">
         <v>29509</v>
@@ -3163,19 +3178,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3186,19 +3201,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F106" s="18">
         <v>29509</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3209,19 +3224,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3232,19 +3247,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D108" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F108" s="18">
         <v>29509</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3255,13 +3270,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F109" s="18">
         <v>29509</v>
@@ -3278,13 +3293,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F110" s="18">
         <v>29509</v>
@@ -3301,19 +3316,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F111" s="18">
         <v>29509</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3324,19 +3339,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3347,19 +3362,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F113" s="18">
         <v>29509</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3370,19 +3385,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3393,19 +3408,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3416,19 +3431,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D116" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="E116" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3439,19 +3454,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3462,19 +3477,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F118" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3485,19 +3500,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F119" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3508,75 +3523,466 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F120" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="22" t="s">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G121" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G122" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G123" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G124" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G125" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G126" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G127" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F121" s="24">
-        <v>29509</v>
-      </c>
-      <c r="G121" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="26"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C126" s="32"/>
-      <c r="H126" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C127" s="32"/>
-      <c r="H127" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="D128" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G128" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G129" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G130" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G131" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G132" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G133" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G134" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G135" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G136" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G137" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G138" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="26"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="32"/>
+      <c r="H143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="32"/>
+      <c r="H144" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="H143:J143"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006611127.xlsx
+++ b/Data/EC/NIT-9006611127.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2345D229-D12A-4C9F-93D0-8C662C2CB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B945594-02A5-4C85-961C-157F0BC532BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59B680C7-DE66-41CC-BC8C-473CCCF755BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D4EE6C3-6DAD-4749-B91F-8ED919D3B5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,139 +65,124 @@
     <t>CC</t>
   </si>
   <si>
+    <t>75583120</t>
+  </si>
+  <si>
+    <t>GABRIEL JIMENEZ CARMONA</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>19762942</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL ZABALETA TURIZO</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1098637479</t>
+  </si>
+  <si>
+    <t>OSCAR ALBERTO ARDILA SIZA</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1085101046</t>
+  </si>
+  <si>
+    <t>WILSON VILLARREAL ROBLES</t>
+  </si>
+  <si>
+    <t>85435936</t>
+  </si>
+  <si>
+    <t>WILSON VILLARREAL CANTILLO</t>
+  </si>
+  <si>
+    <t>1092356817</t>
+  </si>
+  <si>
+    <t>JUAN DANILO DUARTE PATIÑO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
     <t>13929758</t>
   </si>
   <si>
     <t>JORGE LANDAZABAL MELENDEZ</t>
   </si>
   <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>5594062</t>
+  </si>
+  <si>
+    <t>NILSON ARBOLEDA HOYOS</t>
+  </si>
+  <si>
+    <t>13564056</t>
+  </si>
+  <si>
+    <t>ROBINSON HERNANDEZ CELIS</t>
+  </si>
+  <si>
+    <t>85040871</t>
+  </si>
+  <si>
+    <t>LEONARDO FABIO LOPEZ ROYERO</t>
+  </si>
+  <si>
+    <t>1098675972</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO FERRARO GARCIA</t>
+  </si>
+  <si>
+    <t>73508020</t>
+  </si>
+  <si>
+    <t>YEISON JOSE RUIZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>5493731</t>
+  </si>
+  <si>
+    <t>MIGUEL ANTONIO TORRES CONTRERAS</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1101450656</t>
-  </si>
-  <si>
-    <t>MIGUEL URUETA ALVAREZ</t>
-  </si>
-  <si>
-    <t>5594062</t>
-  </si>
-  <si>
-    <t>NILSON ARBOLEDA HOYOS</t>
-  </si>
-  <si>
-    <t>1098637479</t>
-  </si>
-  <si>
-    <t>OSCAR ALBERTO ARDILA SIZA</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1027958149</t>
-  </si>
-  <si>
-    <t>HUGO ARMANDO DURANGO BARON</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>75583120</t>
-  </si>
-  <si>
-    <t>GABRIEL JIMENEZ CARMONA</t>
-  </si>
-  <si>
-    <t>19762942</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL ZABALETA TURIZO</t>
-  </si>
-  <si>
-    <t>1085101046</t>
-  </si>
-  <si>
-    <t>WILSON VILLARREAL ROBLES</t>
-  </si>
-  <si>
-    <t>85435936</t>
-  </si>
-  <si>
-    <t>WILSON VILLARREAL CANTILLO</t>
-  </si>
-  <si>
-    <t>1092356817</t>
-  </si>
-  <si>
-    <t>JUAN DANILO DUARTE PATIÑO</t>
-  </si>
-  <si>
-    <t>13564056</t>
-  </si>
-  <si>
-    <t>ROBINSON HERNANDEZ CELIS</t>
-  </si>
-  <si>
-    <t>85040871</t>
-  </si>
-  <si>
-    <t>LEONARDO FABIO LOPEZ ROYERO</t>
-  </si>
-  <si>
-    <t>1098675972</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO FERRARO GARCIA</t>
-  </si>
-  <si>
-    <t>73508020</t>
-  </si>
-  <si>
-    <t>YEISON JOSE RUIZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>5493731</t>
-  </si>
-  <si>
-    <t>MIGUEL ANTONIO TORRES CONTRERAS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -296,7 +281,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,23 +496,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +540,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E01CEF2-9D42-8420-D521-E2E35939F4AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B28F85-18C3-7630-9022-A1AA4CF7030E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D75D13-7A34-46EA-833B-65AB636CF7EC}">
-  <dimension ref="B2:J144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CFBB30-4B01-4ED9-8726-D40C2C8112B6}">
+  <dimension ref="B2:J127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -987,7 +972,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1017,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1049,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3678327</v>
+        <v>3173194</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,17 +1065,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1117,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1143,7 +1128,7 @@
         <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1183,13 +1168,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1200,10 +1185,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1212,7 +1197,7 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1223,19 +1208,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1252,13 +1237,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1269,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1281,7 +1266,7 @@
         <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1315,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>29509</v>
@@ -1338,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1361,19 +1346,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1384,19 +1369,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1407,16 +1392,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1430,16 +1415,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1453,19 +1438,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1476,16 +1461,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1499,16 +1484,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1522,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1545,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1568,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1591,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1614,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
@@ -1637,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1666,13 +1651,13 @@
         <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
         <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1683,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1706,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1729,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1752,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1775,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>28</v>
@@ -1798,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
@@ -1821,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
@@ -1844,13 +1829,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
@@ -1867,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
@@ -1890,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
@@ -1913,13 +1898,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
@@ -1936,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F51" s="18">
         <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1959,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
@@ -1982,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
@@ -2005,13 +1990,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
@@ -2028,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F55" s="18">
         <v>29509</v>
@@ -2051,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F56" s="18">
         <v>29509</v>
@@ -2074,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F57" s="18">
         <v>29509</v>
@@ -2097,19 +2082,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F58" s="18">
         <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2120,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
@@ -2143,13 +2128,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
@@ -2166,13 +2151,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F61" s="18">
         <v>29509</v>
@@ -2189,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F62" s="18">
         <v>29509</v>
@@ -2212,13 +2197,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F63" s="18">
         <v>29509</v>
@@ -2235,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
         <v>29509</v>
@@ -2258,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
         <v>29509</v>
@@ -2281,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F66" s="18">
         <v>29509</v>
@@ -2304,16 +2289,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E67" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2327,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
         <v>29509</v>
@@ -2350,13 +2335,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
         <v>29509</v>
@@ -2373,13 +2358,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F70" s="18">
         <v>29509</v>
@@ -2396,13 +2381,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F71" s="18">
         <v>29509</v>
@@ -2419,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F72" s="18">
         <v>29509</v>
@@ -2442,16 +2427,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2465,16 +2450,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F74" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2488,16 +2473,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2511,16 +2496,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F76" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2534,16 +2519,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2557,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F78" s="18">
         <v>29509</v>
@@ -2580,16 +2565,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F79" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2603,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>29509</v>
@@ -2626,13 +2611,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>29509</v>
@@ -2649,13 +2634,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F82" s="18">
         <v>29509</v>
@@ -2672,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F83" s="18">
         <v>29509</v>
@@ -2695,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F84" s="18">
         <v>29509</v>
@@ -2718,16 +2703,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E85" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F85" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2741,16 +2726,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F86" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2764,16 +2749,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F87" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2787,19 +2772,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F88" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2810,19 +2795,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F89" s="18">
         <v>29509</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2833,19 +2818,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F90" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2856,19 +2841,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F91" s="18">
         <v>29509</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2879,19 +2864,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F92" s="18">
         <v>29509</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2902,19 +2887,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F93" s="18">
         <v>29509</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2925,19 +2910,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F94" s="18">
         <v>29509</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2948,19 +2933,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F95" s="18">
         <v>29509</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2971,19 +2956,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F96" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -2994,19 +2979,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="E97" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3017,19 +3002,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F98" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3040,19 +3025,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3063,19 +3048,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F100" s="18">
         <v>29509</v>
       </c>
       <c r="G100" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3086,19 +3071,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F101" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3109,19 +3094,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F102" s="18">
         <v>29509</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3132,19 +3117,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F103" s="18">
         <v>29509</v>
       </c>
       <c r="G103" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3155,19 +3140,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F104" s="18">
         <v>29509</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3178,19 +3163,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F105" s="18">
         <v>29509</v>
       </c>
       <c r="G105" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3201,19 +3186,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F106" s="18">
         <v>29509</v>
       </c>
       <c r="G106" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3224,19 +3209,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F107" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3247,19 +3232,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3270,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3293,19 +3278,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="E110" s="16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3316,19 +3301,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F111" s="18">
         <v>29509</v>
       </c>
       <c r="G111" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3339,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3362,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
         <v>29509</v>
       </c>
       <c r="G113" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3385,19 +3370,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
         <v>29509</v>
       </c>
       <c r="G114" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3408,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
         <v>29509</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3431,19 +3416,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
         <v>29509</v>
       </c>
       <c r="G116" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3454,19 +3439,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F117" s="18">
         <v>29509</v>
       </c>
       <c r="G117" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3477,13 +3462,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3500,13 +3485,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3523,13 +3508,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3542,447 +3527,56 @@
       <c r="J120" s="20"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="18">
+      <c r="B121" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="24">
         <v>31249</v>
       </c>
-      <c r="G121" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G122" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G123" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G124" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G125" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="G121" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="26"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G126" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="B126" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="32"/>
+      <c r="H126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G127" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G128" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G129" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G130" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G131" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G132" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G133" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G134" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G135" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G136" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F137" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G137" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G138" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="26"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C143" s="32"/>
-      <c r="H143" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="32"/>
-      <c r="H144" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="B127" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="H127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="H126:J126"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
